--- a/data-raw/metadata/feather_release_metadata.xlsx
+++ b/data-raw/metadata/feather_release_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242F031F-2905-B148-87D9-51EB41FB3273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA47B64C-D284-5240-A3C4-D312A54996CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32260" yWindow="-19580" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="69">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>Whether the test ID was included</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1161,7 +1164,9 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="K15" s="6"/>
       <c r="L15" s="7"/>
       <c r="M15" s="3"/>

--- a/data-raw/metadata/feather_release_metadata.xlsx
+++ b/data-raw/metadata/feather_release_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99AA797-7A9B-7041-BBC9-09FB911AF8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7003D713-13D8-E54B-8553-C1D8B52C6B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31500" yWindow="-19980" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Common name of marked species. Levels = "Chinook salmon"</t>
+  </si>
+  <si>
+    <t>number of fish</t>
   </si>
 </sst>
 </file>
@@ -535,7 +538,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1010,7 +1013,9 @@
       <c r="F12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="H12" s="3" t="s">
         <v>33</v>
       </c>

--- a/data-raw/metadata/feather_release_metadata.xlsx
+++ b/data-raw/metadata/feather_release_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7003D713-13D8-E54B-8553-C1D8B52C6B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FCA0A9-09D8-954A-AC44-29F4C916CEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31500" yWindow="-19980" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,9 +148,6 @@
     <t>Number of days this trap test is considered valid</t>
   </si>
   <si>
-    <t>days</t>
-  </si>
-  <si>
     <t>appliedMarkType</t>
   </si>
   <si>
@@ -213,11 +210,17 @@
   <si>
     <t>number of fish</t>
   </si>
+  <si>
+    <t>days</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -283,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -320,6 +323,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -554,7 +560,7 @@
     <col min="9" max="9" width="14.1640625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="17.6640625" customWidth="1"/>
-    <col min="12" max="13" width="9.1640625" customWidth="1"/>
+    <col min="12" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="26" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -712,8 +718,12 @@
         <v>37</v>
       </c>
       <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="3"/>
+      <c r="L4" s="18">
+        <v>36162</v>
+      </c>
+      <c r="M4" s="18">
+        <v>44671.395138888889</v>
+      </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -733,7 +743,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -771,7 +781,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -809,7 +819,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -847,7 +857,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -885,7 +895,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
@@ -923,7 +933,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -961,7 +971,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -1014,7 +1024,7 @@
         <v>31</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>33</v>
@@ -1022,8 +1032,12 @@
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>3181</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1058,7 +1072,7 @@
         <v>31</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>33</v>
@@ -1066,8 +1080,12 @@
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>29</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1084,10 +1102,10 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
@@ -1122,10 +1140,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
@@ -1160,10 +1178,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
@@ -1198,10 +1216,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
@@ -1236,10 +1254,10 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -28838,13 +28856,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>

--- a/data-raw/metadata/feather_release_metadata.xlsx
+++ b/data-raw/metadata/feather_release_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FCA0A9-09D8-954A-AC44-29F4C916CEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0518290F-1B6B-D14C-92E5-7A9471AAE085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31500" yWindow="-19980" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6600" yWindow="-19260" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>release</t>
-  </si>
-  <si>
-    <t>enumerated</t>
   </si>
   <si>
     <t>releaseID</t>
@@ -213,6 +210,12 @@
   <si>
     <t>days</t>
   </si>
+  <si>
+    <t>Feather River RST program</t>
+  </si>
+  <si>
+    <t>enumerated</t>
+  </si>
 </sst>
 </file>
 
@@ -321,11 +324,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -626,13 +629,13 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -658,19 +661,19 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -696,32 +699,32 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="2"/>
       <c r="J4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4" s="10"/>
-      <c r="L4" s="18">
+      <c r="L4" s="16">
         <v>36162</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="16">
         <v>44671.395138888889</v>
       </c>
       <c r="N4" s="1"/>
@@ -740,10 +743,10 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -752,7 +755,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -778,10 +781,10 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -790,7 +793,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -816,10 +819,10 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -828,7 +831,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -854,10 +857,10 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -866,7 +869,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -892,10 +895,10 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
@@ -904,7 +907,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -930,10 +933,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -942,7 +945,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -968,10 +971,10 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -980,7 +983,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1006,28 +1009,28 @@
     </row>
     <row r="12" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
@@ -1054,28 +1057,28 @@
     </row>
     <row r="13" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
@@ -1102,10 +1105,10 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
@@ -1114,7 +1117,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1140,10 +1143,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
@@ -1152,7 +1155,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1178,10 +1181,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
@@ -1190,7 +1193,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1216,10 +1219,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
@@ -1228,7 +1231,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1254,10 +1257,10 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -1266,7 +1269,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1823,7 +1826,7 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
@@ -1851,7 +1854,7 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
@@ -1879,7 +1882,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -1907,7 +1910,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="17"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -28820,10 +28823,10 @@
     <mergeCell ref="A40:A41"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C58:C1001 C13:C46 C1:C12" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C58:C1001 C1:C46" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E13:E1001 E1:E12" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E1001" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F1001" xr:uid="{00000000-0002-0000-0000-000001000000}">
@@ -28843,7 +28846,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C333"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28856,13 +28859,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -28889,9 +28892,15 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="A2" s="13">
+        <v>2</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>

--- a/data-raw/metadata/feather_release_metadata.xlsx
+++ b/data-raw/metadata/feather_release_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0518290F-1B6B-D14C-92E5-7A9471AAE085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741E045E-CD60-9F4E-9AC3-442EE54D36C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6600" yWindow="-19260" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -329,6 +329,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,7 +548,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1007,7 +1008,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1026,7 +1027,7 @@
       <c r="F12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="19" t="s">
         <v>59</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -1055,7 +1056,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1074,7 +1075,7 @@
       <c r="F13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="19" t="s">
         <v>60</v>
       </c>
       <c r="H13" s="3" t="s">

--- a/data-raw/metadata/feather_release_metadata.xlsx
+++ b/data-raw/metadata/feather_release_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741E045E-CD60-9F4E-9AC3-442EE54D36C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD24861-ABA9-3A4C-B364-A9611FB7B0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6600" yWindow="-19260" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35480" yWindow="-19900" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -329,7 +329,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,7 +547,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -564,7 +563,7 @@
     <col min="9" max="9" width="14.1640625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="17.6640625" customWidth="1"/>
-    <col min="12" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="26" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1027,7 +1026,7 @@
       <c r="F12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -1075,7 +1074,7 @@
       <c r="F13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="9" t="s">
         <v>60</v>
       </c>
       <c r="H13" s="3" t="s">

--- a/data-raw/metadata/feather_release_metadata.xlsx
+++ b/data-raw/metadata/feather_release_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD24861-ABA9-3A4C-B364-A9611FB7B0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1312F5-8D4E-FA4B-9BAC-D285AD18ABD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35480" yWindow="-19900" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -172,13 +172,7 @@
     <t>IncludeInAnalysis</t>
   </si>
   <si>
-    <t>Run of fish marked. Levels = c("Fall", "Not recorded")</t>
-  </si>
-  <si>
     <t>Lifestage of fish marked. Levels = c("Not recorded", "Not applicable (n/a)")</t>
-  </si>
-  <si>
-    <t>Origin or production type of fish marked. Levels = c("Unknown", "Not applicable (n/a)", "Mixed", "Natural")</t>
   </si>
   <si>
     <t>Site where fish used for release were from. Levels = c("Not recorded", "Not applicable", "Steep Riffle", "Gateway Riffle", "Herringer Riffle", "Eye Riffle")</t>
@@ -215,6 +209,12 @@
   </si>
   <si>
     <t>enumerated</t>
+  </si>
+  <si>
+    <t>Run of fish marked. Levels = c("Fall", "Not recorded", "Spring")</t>
+  </si>
+  <si>
+    <t>Origin or production type of fish marked. Levels = c("Unknown", "Not applicable (n/a)", "Mixed", "Natural", "Hatchery")</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -635,7 +635,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -746,7 +746,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -784,7 +784,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -822,7 +822,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -860,7 +860,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -898,7 +898,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
@@ -936,7 +936,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -974,7 +974,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -1027,7 +1027,7 @@
         <v>30</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>32</v>
@@ -1075,7 +1075,7 @@
         <v>30</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>32</v>
@@ -1108,7 +1108,7 @@
         <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
@@ -1146,7 +1146,7 @@
         <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
@@ -1184,7 +1184,7 @@
         <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
@@ -1260,7 +1260,7 @@
         <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -28896,7 +28896,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>

--- a/data-raw/metadata/feather_release_metadata.xlsx
+++ b/data-raw/metadata/feather_release_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1312F5-8D4E-FA4B-9BAC-D285AD18ABD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0C6422-CF79-074D-BB68-E35229A07A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -722,7 +722,7 @@
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="16">
-        <v>36162</v>
+        <v>1</v>
       </c>
       <c r="M4" s="16">
         <v>44671.395138888889</v>

--- a/data-raw/metadata/feather_release_metadata.xlsx
+++ b/data-raw/metadata/feather_release_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-feather-edi/data-raw/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/jpe-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0C6422-CF79-074D-BB68-E35229A07A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B954382-BB61-3147-8347-5D4FF029824B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>markedRun</t>
-  </si>
-  <si>
-    <t>markedLifeStage</t>
   </si>
   <si>
     <t>markedFishOrigin</t>
@@ -170,9 +167,6 @@
   </si>
   <si>
     <t>IncludeInAnalysis</t>
-  </si>
-  <si>
-    <t>Lifestage of fish marked. Levels = c("Not recorded", "Not applicable (n/a)")</t>
   </si>
   <si>
     <t>Site where fish used for release were from. Levels = c("Not recorded", "Not applicable", "Steep Riffle", "Gateway Riffle", "Herringer Riffle", "Eye Riffle")</t>
@@ -544,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -635,7 +629,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -699,26 +693,26 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="2"/>
       <c r="J4" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="16">
@@ -746,7 +740,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -784,7 +778,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -822,7 +816,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -860,7 +854,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -898,7 +892,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
@@ -936,7 +930,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -969,30 +963,40 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>3181</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1007,30 +1011,30 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
@@ -1039,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>3181</v>
+        <v>29</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1055,40 +1059,30 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>29</v>
-      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1107,8 +1101,8 @@
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>52</v>
+      <c r="B14" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
@@ -1145,8 +1139,8 @@
       <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>53</v>
+      <c r="B15" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
@@ -1184,7 +1178,7 @@
         <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
@@ -1219,15 +1213,15 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1256,21 +1250,11 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1798,7 +1782,7 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
@@ -1826,7 +1810,7 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
@@ -1854,7 +1838,7 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
@@ -1882,7 +1866,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -1910,7 +1894,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -2862,7 +2846,7 @@
       <c r="Z74" s="1"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4"/>
+      <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="2"/>
@@ -28789,50 +28773,22 @@
       <c r="Y1000" s="1"/>
       <c r="Z1000" s="1"/>
     </row>
-    <row r="1001" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1001" s="1"/>
-      <c r="B1001" s="1"/>
-      <c r="C1001" s="1"/>
-      <c r="D1001" s="2"/>
-      <c r="E1001" s="1"/>
-      <c r="F1001" s="3"/>
-      <c r="G1001" s="3"/>
-      <c r="H1001" s="3"/>
-      <c r="I1001" s="2"/>
-      <c r="J1001" s="3"/>
-      <c r="K1001" s="2"/>
-      <c r="L1001" s="3"/>
-      <c r="M1001" s="3"/>
-      <c r="N1001" s="1"/>
-      <c r="O1001" s="1"/>
-      <c r="P1001" s="1"/>
-      <c r="Q1001" s="1"/>
-      <c r="R1001" s="1"/>
-      <c r="S1001" s="1"/>
-      <c r="T1001" s="1"/>
-      <c r="U1001" s="1"/>
-      <c r="V1001" s="1"/>
-      <c r="W1001" s="1"/>
-      <c r="X1001" s="1"/>
-      <c r="Y1001" s="1"/>
-      <c r="Z1001" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C58:C1001 C1:C46" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C57:C1000 C1:C45" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E1001" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F1001" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F1000" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H1001" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H1000" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28859,13 +28815,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -28896,7 +28852,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
